--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -193,10 +193,10 @@
     <t>东波分理处</t>
   </si>
   <si>
-    <t>益江分理处</t>
-  </si>
-  <si>
-    <t>南新分理处</t>
+    <t>益江支行</t>
+  </si>
+  <si>
+    <t>南新支行</t>
   </si>
   <si>
     <t>凌兆分理处</t>
@@ -669,19 +669,19 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P2">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -710,10 +710,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -725,28 +725,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
-        <v>11.4</v>
+        <v>7.950000000000003</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="P3">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="J4">
         <v>160</v>
@@ -799,34 +799,34 @@
         <v>-0.4699999999999989</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="P4">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,28 +852,28 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>30.5717</v>
+        <v>-0.04829999999999757</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P5">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -899,10 +899,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>26</v>
@@ -940,6 +940,9 @@
       <c r="Q6">
         <v>2</v>
       </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -947,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -985,19 +988,19 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P7">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1047,19 +1050,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>10.4</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P8">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1109,7 +1112,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>6.699999999999999</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="L9">
         <v>17</v>
@@ -1147,7 +1150,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1171,19 +1174,19 @@
         <v>200</v>
       </c>
       <c r="K10">
-        <v>-0.3500000000000014</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1209,13 +1212,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1224,43 +1227,43 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J11">
         <v>140</v>
       </c>
       <c r="K11">
-        <v>0.2300000000000004</v>
+        <v>-0.2700000000000031</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P11">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1333,10 +1336,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1348,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>10.8877</v>
+        <v>4.537699999999997</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M13">
         <v>1.22</v>
@@ -1369,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.22</v>
+        <v>25.22</v>
       </c>
       <c r="P13">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1401,13 +1404,13 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1416,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
         <v>70</v>
       </c>
       <c r="K14">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1487,19 +1490,19 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>4.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P15">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1549,7 +1552,7 @@
         <v>110</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1614,19 +1617,19 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>9.449999999999999</v>
+        <v>20.05</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P17">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1679,19 +1682,19 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1717,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1732,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>19.9</v>
+        <v>-0.1000000000000014</v>
       </c>
       <c r="L19">
         <v>43</v>
@@ -1782,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>2.700000000000003</v>
+        <v>0.3239999999999981</v>
       </c>
       <c r="L20">
         <v>57</v>
@@ -1847,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1871,19 +1874,19 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>-0.3</v>
+        <v>4.7</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1927,28 +1930,28 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P22">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1974,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1989,28 +1992,28 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J23">
         <v>40</v>
       </c>
       <c r="K23">
-        <v>-0.2000000000000002</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2036,7 +2039,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2060,7 +2063,7 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>-0.04980000000000118</v>
+        <v>0.0001999999999995339</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2119,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2190,7 +2193,7 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>2.5</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="L26">
         <v>16</v>
@@ -2252,19 +2255,22 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>0.4399999999999977</v>
+        <v>5.739999999999995</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>1.3</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>36</v>
+        <v>41.3</v>
       </c>
       <c r="P27">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2290,7 +2296,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2355,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2367,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J29">
         <v>40</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>18</v>
@@ -2438,19 +2444,19 @@
         <v>20</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2476,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2491,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="J31">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2562,7 +2568,7 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>1.012</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -2624,19 +2630,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>5.3838</v>
+        <v>0.4738000000000007</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P33">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2662,10 +2668,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2677,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J34">
         <v>60</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34">
         <v>8</v>
@@ -2786,10 +2792,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2801,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="L36">
         <v>8</v>
@@ -2848,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -2872,10 +2878,10 @@
         <v>40</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -2884,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P37">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2913,10 +2919,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2928,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I38">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="J38">
         <v>20</v>
@@ -2978,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2990,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J39">
         <v>20</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3043,7 +3049,7 @@
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3055,28 +3061,28 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J40">
         <v>40</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3102,10 +3108,10 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3117,28 +3123,28 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>-5.2</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3164,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -3232,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3244,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -3291,7 +3297,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3377,7 +3383,7 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -964,13 +964,13 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="J7">
         <v>150</v>
@@ -1336,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="J13">
         <v>80</v>
@@ -2296,10 +2296,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="J28">
         <v>60</v>
@@ -2854,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>40</v>
@@ -3046,10 +3046,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3061,28 +3061,28 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J40">
         <v>40</v>
       </c>
       <c r="K40">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3108,10 +3108,10 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3123,28 +3123,28 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41">
-        <v>-5.2</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q41">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,10 +645,10 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>77</v>
@@ -660,34 +660,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="J2">
         <v>110</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="P2">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>38</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V2">
-        <v>13</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -710,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -734,19 +734,19 @@
         <v>200</v>
       </c>
       <c r="K3">
-        <v>7.950000000000003</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P3">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
         <v>160</v>
       </c>
       <c r="K4">
-        <v>-0.4699999999999989</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>48</v>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,28 +852,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>-0.04829999999999757</v>
+        <v>12.8</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="M5">
+        <v>4.8</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>59</v>
+        <v>71.8</v>
       </c>
       <c r="P5">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -899,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="J6">
         <v>120</v>
@@ -964,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -988,19 +991,19 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>10.7</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1026,13 +1029,13 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1041,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>66</v>
@@ -1068,16 +1071,16 @@
         <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1112,7 +1115,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>17</v>
@@ -1150,10 +1153,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1165,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>0.2899999999999991</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>31</v>
@@ -1212,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1236,19 +1239,19 @@
         <v>140</v>
       </c>
       <c r="K11">
-        <v>-0.2700000000000031</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P11">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -1298,19 +1301,19 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1336,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1360,10 +1363,10 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>4.537699999999997</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M13">
         <v>1.22</v>
@@ -1372,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.22</v>
+        <v>31.22</v>
       </c>
       <c r="P13">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1428,7 +1431,7 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1490,19 +1493,19 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>0.9000000000000004</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P15">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1552,22 +1555,22 @@
         <v>110</v>
       </c>
       <c r="K16">
-        <v>-0.1999999999999993</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P16">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1617,7 +1620,7 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>20.05</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -1682,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>44</v>
@@ -1744,19 +1747,19 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>-0.1000000000000014</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P19">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1809,7 +1812,7 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0.3239999999999981</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>57</v>
@@ -1874,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1915,10 +1918,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1930,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>15</v>
@@ -1956,6 +1959,9 @@
       <c r="Q22">
         <v>1</v>
       </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
       <c r="S22">
         <v>0</v>
       </c>
@@ -1963,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1980,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1992,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>40</v>
       </c>
       <c r="K23">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>11</v>
@@ -2039,10 +2045,10 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2054,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="J24">
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.0001999999999995339</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2084,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2093,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2193,7 +2199,7 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.2300000000000004</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>16</v>
@@ -2255,7 +2261,7 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>5.739999999999995</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>40</v>
@@ -2320,19 +2326,19 @@
         <v>60</v>
       </c>
       <c r="K28">
-        <v>-0.4199999999999999</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P28">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2358,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2444,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="K30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>14</v>
@@ -2485,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2497,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="J31">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2568,7 +2574,7 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -2630,19 +2636,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>0.4738000000000007</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P33">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2671,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2683,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="J34">
         <v>60</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>8</v>
@@ -2816,7 +2822,7 @@
         <v>30</v>
       </c>
       <c r="K36">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>8</v>
@@ -2878,7 +2884,7 @@
         <v>40</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>7</v>
@@ -2919,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -2943,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2981,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3005,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="K39">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3132,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -3170,13 +3176,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3185,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J42">
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>6</v>
@@ -3215,16 +3221,16 @@
         <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3235,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>3</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,10 +645,10 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>77</v>
@@ -660,34 +660,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="J2">
         <v>110</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="P2">
-        <v>0.68</v>
+        <v>1.17</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S2">
         <v>38</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V2">
-        <v>13.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -734,19 +734,19 @@
         <v>200</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -796,19 +796,19 @@
         <v>160</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="P4">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>1.14</v>
+        <v>2.27</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M5">
         <v>4.8</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>71.8</v>
+        <v>75.8</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,13 +902,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -917,46 +917,46 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>0.55</v>
+        <v>1.64</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="P6">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -991,19 +991,19 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P7">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1029,13 +1029,13 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1044,43 +1044,46 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P8">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
       <c r="S8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1115,19 +1118,19 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P9">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1153,10 +1156,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="J10">
         <v>200</v>
@@ -1239,7 +1242,7 @@
         <v>140</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>37</v>
@@ -1301,19 +1304,19 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P12">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1339,10 +1342,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1354,37 +1357,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>1.22</v>
+        <v>14.72</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.22</v>
+        <v>45.72</v>
       </c>
       <c r="P13">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1393,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1431,19 +1434,19 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P14">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1472,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1484,43 +1487,46 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>0.03</v>
+        <v>0.57</v>
       </c>
       <c r="J15">
         <v>200</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="P15">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
       <c r="S15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1555,22 +1561,22 @@
         <v>110</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>49.8</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>40</v>
+        <v>58.8</v>
       </c>
       <c r="P16">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1620,19 +1626,19 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1685,19 +1691,19 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P18">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1747,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>51</v>
@@ -1788,13 +1794,13 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1803,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I20">
-        <v>0.06</v>
+        <v>1.94</v>
       </c>
       <c r="J20">
         <v>50</v>
@@ -1830,19 +1836,19 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1918,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1933,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="J22">
         <v>80</v>
@@ -1945,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P22">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1983,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1998,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J23">
         <v>40</v>
@@ -2048,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2060,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M24">
         <v>17.97</v>
@@ -2081,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.97</v>
+        <v>37.97</v>
       </c>
       <c r="P24">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2099,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2113,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2128,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2261,10 +2267,10 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>41.3</v>
+        <v>42.3</v>
       </c>
       <c r="P27">
         <v>0.28</v>
@@ -2302,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2317,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="J28">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>13</v>
@@ -2343,6 +2349,9 @@
       <c r="Q28">
         <v>1</v>
       </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
       <c r="S28">
         <v>0</v>
       </c>
@@ -2350,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2364,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2379,28 +2388,28 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J29">
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P29">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2450,19 +2459,19 @@
         <v>20</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P30">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2488,10 +2497,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2503,28 +2512,28 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="J31">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2574,19 +2583,19 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P32">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -2636,19 +2645,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P33">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2674,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2701,16 +2710,16 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P34">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -2798,10 +2807,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2813,28 +2822,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P36">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2925,10 +2934,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2940,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="J38">
         <v>20</v>
@@ -3076,19 +3085,19 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3138,19 +3147,19 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P41">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3176,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -3306,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3318,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J44">
         <v>20</v>
@@ -3330,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q44">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,13 +645,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I2">
-        <v>2.18</v>
+        <v>3.08</v>
       </c>
       <c r="J2">
         <v>110</v>
@@ -690,16 +690,16 @@
         <v>6</v>
       </c>
       <c r="S2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="V2">
-        <v>14.67</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="3" spans="1:22">

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,13 +645,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -660,28 +660,28 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I2">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="J2">
         <v>110</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P2">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -690,16 +690,16 @@
         <v>6</v>
       </c>
       <c r="S2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V2">
-        <v>20.33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -734,7 +734,7 @@
         <v>200</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>54</v>
@@ -772,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
         <v>160</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>72</v>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,31 +852,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>2.27</v>
+        <v>2.59</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L5">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M5">
-        <v>4.8</v>
+        <v>19.8</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>75.8</v>
+        <v>105.8</v>
       </c>
       <c r="P5">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -917,25 +917,25 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6">
         <v>0.48</v>
@@ -991,7 +991,7 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>59</v>
@@ -1029,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1053,7 +1053,7 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>85</v>
@@ -1094,10 +1094,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>44</v>
@@ -1156,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1180,19 +1180,19 @@
         <v>200</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P10">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1242,19 +1242,19 @@
         <v>140</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1357,31 +1357,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>31</v>
       </c>
       <c r="M13">
-        <v>14.72</v>
+        <v>34.72</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>45.72</v>
+        <v>65.72</v>
       </c>
       <c r="P13">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1434,19 +1434,19 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P14">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1496,19 +1496,19 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P15">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J16">
         <v>110</v>
       </c>
       <c r="K16">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>51</v>
@@ -1691,7 +1691,7 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>57</v>
@@ -1794,10 +1794,10 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -1809,34 +1809,34 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>10</v>
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1859,7 +1859,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J21">
         <v>30</v>
@@ -1924,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="J22">
         <v>80</v>
@@ -1989,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J23">
         <v>40</v>
@@ -2051,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -2119,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -2205,19 +2205,19 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2267,10 +2267,10 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -2279,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>42.3</v>
+        <v>62.3</v>
       </c>
       <c r="P27">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2397,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>38</v>
@@ -2459,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>15</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2512,16 +2512,16 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="J31">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2583,19 +2583,19 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P32">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>16</v>
@@ -2683,10 +2683,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2698,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J34">
         <v>60</v>
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2822,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -2934,10 +2934,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="J38">
         <v>20</v>
@@ -3085,7 +3085,7 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>6</v>
@@ -3147,7 +3147,7 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>13</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,13 +645,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -660,28 +660,28 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="I2">
-        <v>3.21</v>
+        <v>3.76</v>
       </c>
       <c r="J2">
         <v>110</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P2">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -690,16 +690,16 @@
         <v>6</v>
       </c>
       <c r="S2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="V2">
-        <v>21</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -796,19 +796,19 @@
         <v>160</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>105.8</v>
+        <v>110.8</v>
       </c>
       <c r="P5">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -926,7 +926,7 @@
         <v>120</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>58</v>
@@ -991,19 +991,19 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P8">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1118,19 +1118,19 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P9">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1156,10 +1156,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>41</v>
@@ -1242,7 +1242,7 @@
         <v>140</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>40</v>
@@ -1342,7 +1342,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1366,10 +1366,10 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13">
         <v>34.72</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>65.72</v>
+        <v>66.72</v>
       </c>
       <c r="P13">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1410,10 +1410,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1425,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="J14">
         <v>70</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>26</v>
@@ -1472,10 +1472,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
         <v>200</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>95</v>
@@ -1537,10 +1537,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="J16">
         <v>110</v>
@@ -1626,19 +1626,19 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P17">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1691,19 +1691,19 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P18">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1729,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -1794,7 +1794,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -1818,19 +1818,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P20">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -1989,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>16</v>
@@ -2051,10 +2051,10 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I24">
-        <v>0.53</v>
+        <v>0.82</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2119,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2205,7 +2205,7 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>18</v>
@@ -2267,7 +2267,7 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>61</v>
@@ -2583,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>17</v>
@@ -2621,13 +2621,13 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2636,43 +2636,43 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="J33">
         <v>170</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P33">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2698,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="J34">
         <v>60</v>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -2937,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="J38">
         <v>20</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,7 +645,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>141</v>
@@ -796,7 +796,7 @@
         <v>160</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>73</v>
@@ -837,34 +837,34 @@
         <v>22</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>2.73</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>110.8</v>
+        <v>118.8</v>
       </c>
       <c r="P5">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -926,19 +926,19 @@
         <v>120</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>62</v>
@@ -1053,19 +1053,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P8">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>48</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,28 +1171,28 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>32</v>
@@ -1410,7 +1410,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1472,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1626,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>61</v>
@@ -1691,7 +1691,7 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>60</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -1818,19 +1818,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="P20">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1948,19 +1948,19 @@
         <v>80</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P22">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>0.82</v>
+        <v>1.12</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2119,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="J25">
         <v>20</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2373,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J29">
         <v>40</v>
@@ -2559,13 +2559,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="J32">
         <v>50</v>
@@ -2601,16 +2601,16 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2621,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P33">
         <v>0.11</v>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -2807,10 +2807,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2822,28 +2822,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P36">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>24</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,13 +645,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="I2">
-        <v>3.76</v>
+        <v>4.45</v>
       </c>
       <c r="J2">
         <v>110</v>
@@ -672,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P2">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -690,16 +690,16 @@
         <v>6</v>
       </c>
       <c r="S2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="V2">
-        <v>24.33</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -725,28 +725,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P3">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -772,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>160</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="P4">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>118.8</v>
+        <v>141.8</v>
       </c>
       <c r="P5">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,13 +902,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -917,46 +917,46 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I6">
-        <v>1.82</v>
+        <v>2.82</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="P6">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
+        <v>14</v>
+      </c>
+      <c r="S6">
         <v>7</v>
       </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="J7">
         <v>150</v>
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P7">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="P8">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,32 +1109,35 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P9">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
       <c r="S9">
         <v>0</v>
       </c>
@@ -1142,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1159,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="P10">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1233,43 +1236,43 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>140</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P11">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1307,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="P12">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1366,22 +1369,22 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M13">
-        <v>34.72</v>
+        <v>41.72</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>66.72</v>
+        <v>102.72</v>
       </c>
       <c r="P13">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1413,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1425,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
         <v>70</v>
@@ -1499,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="P15">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,31 +1555,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="J16">
         <v>110</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>49.8</v>
+        <v>52.8</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>58.8</v>
+        <v>63.8</v>
       </c>
       <c r="P16">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1617,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
         <v>80</v>
@@ -1629,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P17">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1732,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,34 +1747,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="P19">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1780,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1818,19 +1821,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P20">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1927,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1939,28 +1942,28 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I22">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P22">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2004,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>40</v>
@@ -2016,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P23">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2051,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -2119,10 +2122,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2134,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="J25">
         <v>20</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2160,6 +2163,9 @@
       <c r="Q25">
         <v>1</v>
       </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -2167,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2208,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P26">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2267,10 +2273,10 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -2279,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>62.3</v>
+        <v>93.3</v>
       </c>
       <c r="P27">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2373,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2402,14 +2408,17 @@
       <c r="L29">
         <v>38</v>
       </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P29">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2524,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2559,13 +2568,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2574,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>0.59</v>
+        <v>1.24</v>
       </c>
       <c r="J32">
         <v>50</v>
@@ -2601,16 +2610,16 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2627,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2636,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I33">
-        <v>3.44</v>
+        <v>10.78</v>
       </c>
       <c r="J33">
         <v>170</v>
@@ -2648,31 +2657,31 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P33">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="V33">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2698,32 +2707,35 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P34">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
       <c r="S34">
         <v>0</v>
       </c>
@@ -2731,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2807,10 +2819,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2822,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P36">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2872,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2884,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J37">
         <v>40</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -2905,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="P37">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2937,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2949,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I38">
-        <v>2.67</v>
+        <v>3.33</v>
       </c>
       <c r="J38">
         <v>20</v>
@@ -3064,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3076,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="J40">
         <v>40</v>
@@ -3088,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P40">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3253,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3265,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -3277,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -3398,10 +3410,10 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
         <v>2.5</v>
@@ -3410,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P45">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="Q45">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -734,19 +734,19 @@
         <v>200</v>
       </c>
       <c r="K3">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P3">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1053,19 +1053,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="P8">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2654,19 +2654,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P33">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q33">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -645,7 +645,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -669,19 +669,22 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="M2">
+        <v>4.5</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>145</v>
+        <v>160.5</v>
       </c>
       <c r="P2">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -710,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -725,43 +728,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>91</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>91</v>
+      </c>
+      <c r="P3">
+        <v>0.46</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>77</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>77</v>
-      </c>
-      <c r="P3">
-        <v>0.38</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -772,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -787,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J4">
         <v>160</v>
@@ -799,16 +802,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="M4">
+        <v>14.44</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>94</v>
+        <v>118.44</v>
       </c>
       <c r="P4">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -837,10 +843,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I5">
-        <v>4.45</v>
+        <v>5.14</v>
       </c>
       <c r="J5">
         <v>90</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -873,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>141.8</v>
+        <v>158.8</v>
       </c>
       <c r="P5">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,10 +908,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -917,34 +923,34 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O6">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="P6">
-        <v>0.86</v>
+        <v>1.19</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S6">
         <v>7</v>
@@ -953,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V6">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -994,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="P7">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1053,7 +1059,7 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>128</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,34 +1115,34 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="P9">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1145,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1159,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1221,13 +1227,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1236,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="J11">
         <v>140</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>51</v>
@@ -1263,16 +1269,16 @@
         <v>2</v>
       </c>
       <c r="S11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1345,10 +1351,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1360,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M13">
         <v>41.72</v>
@@ -1381,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>102.72</v>
+        <v>137.72</v>
       </c>
       <c r="P13">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1399,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1499,19 +1505,19 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="P15">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1564,10 +1570,10 @@
         <v>110</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M16">
         <v>52.8</v>
@@ -1576,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>63.8</v>
+        <v>69.8</v>
       </c>
       <c r="P16">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1756,19 +1762,19 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="P19">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1927,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1942,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -2057,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2069,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2102,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2122,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2137,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2214,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P26">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2273,7 +2279,7 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>92</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2459,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J30">
         <v>20</v>
@@ -2654,16 +2660,16 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P33">
         <v>0.11</v>
@@ -2716,7 +2722,7 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>39</v>
@@ -2822,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2834,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="J36">
         <v>30</v>
@@ -2881,10 +2887,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2896,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>40</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>30</v>
@@ -2946,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2961,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I38">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="J38">
         <v>20</v>
@@ -2973,20 +2979,23 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P38">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -2994,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3159,19 +3168,19 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P41">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3265,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3277,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -3324,10 +3333,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3339,32 +3348,35 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="J44">
         <v>20</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P44">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
       <c r="S44">
         <v>0</v>
       </c>
@@ -3372,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3410,7 +3422,7 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>4</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -669,22 +669,19 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>5.5</v>
+        <v>-14</v>
       </c>
       <c r="L2">
-        <v>156</v>
-      </c>
-      <c r="M2">
-        <v>4.5</v>
+        <v>141</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>160.5</v>
+        <v>141</v>
       </c>
       <c r="P2">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -713,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -728,43 +725,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.36</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="P3">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -775,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -790,31 +787,28 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
         <v>160</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-45.44</v>
       </c>
       <c r="L4">
-        <v>104</v>
-      </c>
-      <c r="M4">
-        <v>14.44</v>
+        <v>73</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>118.44</v>
+        <v>73</v>
       </c>
       <c r="P4">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -843,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-43</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>5.14</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-40.00000000000001</v>
       </c>
       <c r="L5">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -879,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>158.8</v>
+        <v>118.8</v>
       </c>
       <c r="P5">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -908,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -923,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I6">
-        <v>2.91</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="L6">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>20</v>
       </c>
       <c r="O6">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="P6">
-        <v>1.19</v>
+        <v>0.66</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>7</v>
@@ -959,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -973,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -988,28 +982,28 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="J7">
         <v>150</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L7">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1059,19 +1053,19 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="P8">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -1100,10 +1094,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,35 +1109,32 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>-35</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="P9">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
       <c r="S9">
         <v>0</v>
       </c>
@@ -1151,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1165,10 +1156,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,28 +1171,28 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="L10">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="P10">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1227,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1242,43 +1233,43 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>140</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P11">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1313,19 +1304,19 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="L12">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P12">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1351,10 +1342,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1366,37 +1357,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>34</v>
+        <v>-37</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>41.72</v>
+        <v>34.72</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>137.72</v>
+        <v>66.72</v>
       </c>
       <c r="P13">
-        <v>1.72</v>
+        <v>0.83</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1405,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V13">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1419,10 +1410,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1434,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="J14">
         <v>70</v>
@@ -1505,19 +1496,19 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>-29</v>
       </c>
       <c r="L15">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="P15">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1546,10 +1537,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1561,31 +1552,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="J16">
         <v>110</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>52.8</v>
+        <v>49.8</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>69.8</v>
+        <v>58.8</v>
       </c>
       <c r="P16">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1611,10 +1602,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1626,28 +1617,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
         <v>80</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="P17">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1738,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1753,34 +1744,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>-33</v>
       </c>
       <c r="L19">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="P19">
-        <v>0.93</v>
+        <v>0.51</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1789,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1827,19 +1818,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="L20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="P20">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1933,10 +1924,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1948,28 +1939,28 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P22">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1998,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2013,28 +2004,28 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J23">
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2060,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2075,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I24">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2128,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2143,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2169,9 +2160,6 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -2179,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2217,19 +2205,19 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2279,10 +2267,10 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="L27">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -2291,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>93.3</v>
+        <v>62.3</v>
       </c>
       <c r="P27">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2409,22 +2397,19 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L29">
         <v>38</v>
       </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="P29">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2450,10 +2435,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2465,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="J30">
         <v>20</v>
@@ -2536,19 +2521,19 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2574,13 +2559,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2589,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="J32">
         <v>50</v>
@@ -2616,16 +2601,16 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2660,19 +2645,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P33">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2698,10 +2683,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2713,35 +2698,32 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J34">
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P34">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
       <c r="S34">
         <v>0</v>
       </c>
@@ -2749,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2825,10 +2807,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2840,28 +2822,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P36">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2911,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -2923,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2952,10 +2934,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2967,35 +2949,32 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="J38">
         <v>20</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -3003,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3082,10 +3061,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3097,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="J40">
         <v>40</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3168,19 +3147,19 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P41">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3271,10 +3250,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3286,28 +3265,28 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="J43">
         <v>30</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -3333,10 +3312,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3348,35 +3327,32 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="J44">
         <v>20</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P44">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
       <c r="S44">
         <v>0</v>
       </c>
@@ -3384,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3422,10 +3398,10 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>2.5</v>
@@ -3434,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="P45">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="Q45">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -669,19 +669,22 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>-14</v>
+        <v>4.599999999999994</v>
       </c>
       <c r="L2">
-        <v>141</v>
+        <v>159</v>
+      </c>
+      <c r="M2">
+        <v>6.1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>141</v>
+        <v>165.1</v>
       </c>
       <c r="P2">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -710,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -725,43 +728,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="P3">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -772,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -787,28 +790,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="J4">
         <v>160</v>
       </c>
       <c r="K4">
-        <v>-45.44</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="M4">
+        <v>14.44</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>73</v>
+        <v>138.44</v>
       </c>
       <c r="P4">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -837,10 +843,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>-43</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>5.77</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>-40.00000000000001</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -873,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>118.8</v>
+        <v>179.8</v>
       </c>
       <c r="P5">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -902,10 +908,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -917,34 +923,34 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
       <c r="K6">
-        <v>-64</v>
+        <v>37</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="N6">
         <v>20</v>
       </c>
       <c r="O6">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="P6">
-        <v>0.66</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S6">
         <v>7</v>
@@ -953,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -967,10 +973,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -982,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="J7">
         <v>150</v>
       </c>
       <c r="K7">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P7">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1029,10 +1035,10 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1044,34 +1050,34 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="P8">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>6</v>
@@ -1080,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1094,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,32 +1115,35 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="P9">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
       <c r="S9">
         <v>0</v>
       </c>
@@ -1142,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1156,10 +1165,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="P10">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1233,43 +1242,43 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="J11">
         <v>140</v>
       </c>
       <c r="K11">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P11">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1304,19 +1313,19 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P12">
-        <v>0.44</v>
+        <v>1.04</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1345,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1357,37 +1366,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="J13">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M13">
-        <v>34.72</v>
+        <v>41.72</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>66.72</v>
+        <v>138.72</v>
       </c>
       <c r="P13">
-        <v>0.83</v>
+        <v>1.73</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1396,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1410,10 +1419,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1425,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
         <v>70</v>
@@ -1472,10 +1481,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1487,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="J15">
         <v>200</v>
       </c>
       <c r="K15">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="P15">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1537,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,31 +1561,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="J16">
         <v>110</v>
       </c>
       <c r="K16">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>49.8</v>
+        <v>52.8</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>58.8</v>
+        <v>69.8</v>
       </c>
       <c r="P16">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -1602,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1617,28 +1626,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
         <v>80</v>
       </c>
       <c r="K17">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="P17">
-        <v>0.76</v>
+        <v>1.3</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1691,19 +1700,19 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1729,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,34 +1753,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="P19">
-        <v>0.51</v>
+        <v>0.98</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1780,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1818,19 +1827,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P20">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1924,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1939,28 +1948,28 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P22">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1989,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2004,28 +2013,28 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="J23">
         <v>40</v>
       </c>
       <c r="K23">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P23">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2051,13 +2060,13 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2066,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="J24">
         <v>40</v>
@@ -2119,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2134,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2160,6 +2169,9 @@
       <c r="Q25">
         <v>1</v>
       </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -2167,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2205,19 +2217,19 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P26">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2267,10 +2279,10 @@
         <v>150</v>
       </c>
       <c r="K27">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -2279,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>62.3</v>
+        <v>93.3</v>
       </c>
       <c r="P27">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2308,10 +2320,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2323,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="J28">
         <v>60</v>
@@ -2397,19 +2409,22 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="P29">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2435,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2450,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J30">
         <v>20</v>
@@ -2521,19 +2536,19 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2559,13 +2574,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2574,43 +2589,43 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="J32">
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P32">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="S32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2645,19 +2660,19 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P33">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2683,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2698,32 +2713,35 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>60</v>
       </c>
       <c r="K34">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="P34">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
       <c r="S34">
         <v>0</v>
       </c>
@@ -2731,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2807,10 +2825,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2822,28 +2840,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="J36">
         <v>30</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P36">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2869,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2893,10 +2911,10 @@
         <v>40</v>
       </c>
       <c r="K37">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -2905,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="P37">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2934,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2949,32 +2967,35 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>2.67</v>
+        <v>3.89</v>
       </c>
       <c r="J38">
         <v>20</v>
       </c>
       <c r="K38">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P38">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -2982,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3061,10 +3082,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3076,32 +3097,35 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J40">
         <v>40</v>
       </c>
       <c r="K40">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P40">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
       <c r="S40">
         <v>0</v>
       </c>
@@ -3109,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3147,19 +3171,19 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P41">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -3250,10 +3274,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3265,28 +3289,28 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J43">
         <v>30</v>
       </c>
       <c r="K43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -3312,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3327,32 +3351,35 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="J44">
         <v>20</v>
       </c>
       <c r="K44">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P44">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
       <c r="S44">
         <v>0</v>
       </c>
@@ -3360,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3398,10 +3425,10 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
         <v>2.5</v>
@@ -3410,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="P45">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="Q45">
         <v>1</v>

--- a/result/日报总表.xlsx
+++ b/result/日报总表.xlsx
@@ -669,7 +669,7 @@
         <v>110</v>
       </c>
       <c r="K2">
-        <v>4.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>159</v>
@@ -713,13 +713,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -728,28 +728,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>20</v>
       </c>
       <c r="O3">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="P3">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -775,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -799,7 +799,7 @@
         <v>160</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>124</v>
@@ -843,10 +843,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I5">
-        <v>5.77</v>
+        <v>6.05</v>
       </c>
       <c r="J5">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M5">
         <v>19.8</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>53</v>
@@ -932,19 +932,19 @@
         <v>120</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L6">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="N6">
         <v>20</v>
       </c>
       <c r="O6">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P6">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -997,19 +997,19 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P7">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1059,7 +1059,7 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>129</v>
@@ -1100,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>0.35</v>
+        <v>1.85</v>
       </c>
       <c r="J9">
         <v>60</v>
@@ -1165,10 +1165,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>89</v>
@@ -1251,7 +1251,7 @@
         <v>140</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>52</v>
@@ -1313,19 +1313,19 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P12">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1375,10 +1375,10 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M13">
         <v>41.72</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>138.72</v>
+        <v>148.72</v>
       </c>
       <c r="P13">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1419,10 +1419,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J14">
         <v>70</v>
@@ -1481,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1505,7 +1505,7 @@
         <v>200</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>136</v>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
         <v>110</v>
@@ -1635,7 +1635,7 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>104</v>
@@ -1700,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>80</v>
@@ -1762,7 +1762,7 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>98</v>
@@ -1827,19 +1827,19 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="P20">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>19</v>
@@ -1957,19 +1957,19 @@
         <v>80</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P22">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -2128,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2320,10 +2320,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2335,28 +2335,28 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="J28">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P28">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>60</v>
@@ -2598,7 +2598,7 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>18</v>
@@ -2660,7 +2660,7 @@
         <v>170</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>21</v>
@@ -2722,7 +2722,7 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>40</v>
@@ -2825,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>22</v>
@@ -2849,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>13</v>
@@ -2952,7 +2952,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -3082,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3106,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -3171,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -3298,19 +3298,19 @@
         <v>30</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q43">
         <v>1</v>
